--- a/deliverable3/burndown_chart/Burndown_Chart_Sprint2.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart_Sprint2.xlsx
@@ -270,19 +270,19 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>20.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>16.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>12.499999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>8.3333333333333215</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>4.1666666666666501</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -375,16 +375,16 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,7 +1260,7 @@
         <v>42668</v>
       </c>
       <c r="B3" s="3">
-        <v>25</v>
+        <v>20.833333333333329</v>
       </c>
       <c r="C3" s="3">
         <v>25</v>
@@ -1271,7 +1271,7 @@
         <v>42669</v>
       </c>
       <c r="B4" s="3">
-        <v>25</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="C4" s="3">
         <v>25</v>
@@ -1282,10 +1282,10 @@
         <v>42670</v>
       </c>
       <c r="B5" s="3">
-        <v>25</v>
+        <v>12.499999999999991</v>
       </c>
       <c r="C5" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1293,10 +1293,10 @@
         <v>42671</v>
       </c>
       <c r="B6" s="3">
-        <v>25</v>
+        <v>8.3333333333333215</v>
       </c>
       <c r="C6" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1304,10 +1304,10 @@
         <v>42672</v>
       </c>
       <c r="B7" s="3">
-        <v>25</v>
+        <v>4.1666666666666501</v>
       </c>
       <c r="C7" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/deliverable3/burndown_chart/Burndown_Chart_Sprint2.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart_Sprint2.xlsx
@@ -375,16 +375,16 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,7 +455,7 @@
         <c:axId val="2123971736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="96"/>
+          <c:max val="35"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1285,7 +1285,7 @@
         <v>12.499999999999991</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1296,7 +1296,7 @@
         <v>8.3333333333333215</v>
       </c>
       <c r="C6" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1307,7 +1307,7 @@
         <v>4.1666666666666501</v>
       </c>
       <c r="C7" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
